--- a/data/trans_orig/IP44S1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP44S1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B461BC76-957D-4579-9CBB-412BB37D07B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{171915AD-CA7F-4D1D-AB1B-1E0469277DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CE357B0-47F4-4C81-8098-29EE66E9FFF0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51EFFC38-2777-4D4C-BE5B-746A18786028}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,13 +83,13 @@
     <t>68,49%</t>
   </si>
   <si>
-    <t>18,87%</t>
+    <t>19,14%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>46,38%</t>
+    <t>44,4%</t>
   </si>
   <si>
     <t>Pagos de recibos de agua, gas, calefacción, electricidad, comunidad</t>
@@ -107,13 +107,13 @@
     <t>31,51%</t>
   </si>
   <si>
-    <t>81,13%</t>
+    <t>80,86%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>53,62%</t>
+    <t>55,6%</t>
   </si>
   <si>
     <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
@@ -137,49 +137,49 @@
     <t>85,2%</t>
   </si>
   <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>72,51%</t>
   </si>
   <si>
-    <t>22,1%</t>
+    <t>33,4%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>18,06%</t>
+    <t>24,37%</t>
   </si>
   <si>
     <t>17,23%</t>
   </si>
   <si>
-    <t>72,83%</t>
+    <t>65,7%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>26,35%</t>
+    <t>26,18%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>21,07%</t>
+    <t>21,66%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -188,7 +188,7 @@
     <t>2,99%</t>
   </si>
   <si>
-    <t>14,62%</t>
+    <t>17,13%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -197,25 +197,25 @@
     <t>10,27%</t>
   </si>
   <si>
-    <t>55,47%</t>
+    <t>46,4%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>17,31%</t>
+    <t>18,56%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>30,01%</t>
+    <t>31,59%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>20,61%</t>
+    <t>22,95%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -224,7 +224,7 @@
     <t>87,0%</t>
   </si>
   <si>
-    <t>47,42%</t>
+    <t>46,96%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -233,7 +233,7 @@
     <t>94,55%</t>
   </si>
   <si>
-    <t>67,42%</t>
+    <t>69,71%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -248,13 +248,13 @@
     <t>13,0%</t>
   </si>
   <si>
-    <t>52,58%</t>
+    <t>53,04%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>32,58%</t>
+    <t>30,29%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -263,34 +263,34 @@
     <t>92,15%</t>
   </si>
   <si>
-    <t>75,16%</t>
+    <t>74,08%</t>
   </si>
   <si>
     <t>95,01%</t>
   </si>
   <si>
-    <t>74,19%</t>
+    <t>74,55%</t>
   </si>
   <si>
     <t>93,18%</t>
   </si>
   <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>24,84%</t>
+    <t>25,92%</t>
   </si>
   <si>
     <t>5,02%</t>
   </si>
   <si>
-    <t>15,0%</t>
+    <t>16,05%</t>
   </si>
   <si>
     <t>7,61%</t>
@@ -302,73 +302,73 @@
     <t>4,99%</t>
   </si>
   <si>
-    <t>25,81%</t>
+    <t>25,45%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>9,85%</t>
+    <t>9,5%</t>
   </si>
   <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>90,55%</t>
   </si>
   <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>90,12%</t>
   </si>
   <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>6,72%</t>
+    <t>6,38%</t>
   </si>
   <si>
     <t>4,78%</t>
@@ -377,40 +377,40 @@
     <t>0,66%</t>
   </si>
   <si>
-    <t>3,34%</t>
+    <t>4,06%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>10,19%</t>
+    <t>11,21%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>12,0%</t>
+    <t>13,28%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>10,62%</t>
+    <t>9,13%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>4,49%</t>
+    <t>5,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FDE39E-A0A6-41F6-955A-A087656CDF2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5AB750-46E1-4C4A-8B79-487ABCB98145}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
